--- a/data/pca/factorExposure/factorExposure_2018-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03661482574448922</v>
+        <v>0.03085973988463929</v>
       </c>
       <c r="C2">
-        <v>0.04632379317583046</v>
+        <v>0.01436097699364246</v>
       </c>
       <c r="D2">
-        <v>0.03881717345784721</v>
+        <v>0.01377452878833694</v>
       </c>
       <c r="E2">
-        <v>-0.06124937357562917</v>
+        <v>-0.01602911282394124</v>
       </c>
       <c r="F2">
-        <v>0.1410372572338005</v>
+        <v>0.0230832622358202</v>
       </c>
       <c r="G2">
-        <v>0.04470796082739361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08511457252526743</v>
+      </c>
+      <c r="H2">
+        <v>-0.0201129800753771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1207091304545238</v>
+        <v>0.08364702852231801</v>
       </c>
       <c r="C3">
-        <v>0.006526232018231363</v>
+        <v>-0.01510298403273581</v>
       </c>
       <c r="D3">
-        <v>0.03244925067471513</v>
+        <v>0.01580551377419867</v>
       </c>
       <c r="E3">
-        <v>-0.1177101396869181</v>
+        <v>-0.008824901269093462</v>
       </c>
       <c r="F3">
-        <v>0.395075367342093</v>
+        <v>-0.01584528143162399</v>
       </c>
       <c r="G3">
-        <v>0.1403053837230761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2729676846819955</v>
+      </c>
+      <c r="H3">
+        <v>-0.04077215812047714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05437607915201565</v>
+        <v>0.05002396415725888</v>
       </c>
       <c r="C4">
-        <v>0.03690355004595087</v>
+        <v>0.002786863740686306</v>
       </c>
       <c r="D4">
-        <v>-0.005223683997448114</v>
+        <v>0.03151259205255408</v>
       </c>
       <c r="E4">
-        <v>-0.0672127809867627</v>
+        <v>0.02039504257921403</v>
       </c>
       <c r="F4">
-        <v>0.07045261140739881</v>
+        <v>0.05548866660741777</v>
       </c>
       <c r="G4">
-        <v>0.04449087716309846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05328746412115547</v>
+      </c>
+      <c r="H4">
+        <v>-0.02670121345130479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01320595225397449</v>
+        <v>0.02990399244755157</v>
       </c>
       <c r="C6">
-        <v>-0.002046103883764907</v>
+        <v>0.002978385615789333</v>
       </c>
       <c r="D6">
-        <v>0.01326443603918262</v>
+        <v>0.04151016831138524</v>
       </c>
       <c r="E6">
-        <v>-0.02332887337421478</v>
+        <v>0.005045565873902418</v>
       </c>
       <c r="F6">
-        <v>0.01133664767394253</v>
+        <v>0.03587183334413166</v>
       </c>
       <c r="G6">
-        <v>-0.003670545285961012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01634567255268241</v>
+      </c>
+      <c r="H6">
+        <v>-0.05236114510642781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02713628817756551</v>
+        <v>0.0211654257812856</v>
       </c>
       <c r="C7">
-        <v>0.01579641744582634</v>
+        <v>0.002536049567207366</v>
       </c>
       <c r="D7">
-        <v>0.03183977156572106</v>
+        <v>0.01825037309389943</v>
       </c>
       <c r="E7">
-        <v>-0.04097801411234608</v>
+        <v>0.03501106385532674</v>
       </c>
       <c r="F7">
-        <v>0.06156986129645174</v>
+        <v>0.02079317590020926</v>
       </c>
       <c r="G7">
-        <v>0.05441286130711206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04023850237037678</v>
+      </c>
+      <c r="H7">
+        <v>-0.01602587103669808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01655469088122612</v>
+        <v>0.005935879300762537</v>
       </c>
       <c r="C8">
-        <v>0.01604289606022974</v>
+        <v>-0.002589666499191978</v>
       </c>
       <c r="D8">
-        <v>-0.003763685999367177</v>
+        <v>0.008909838368725624</v>
       </c>
       <c r="E8">
-        <v>-0.0767274481965376</v>
+        <v>0.01062480941329725</v>
       </c>
       <c r="F8">
-        <v>0.08460580985220768</v>
+        <v>0.0282079921720649</v>
       </c>
       <c r="G8">
-        <v>0.06494775660672893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05797071523563242</v>
+      </c>
+      <c r="H8">
+        <v>-0.007433708676930032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04434779395019751</v>
+        <v>0.04085393041728667</v>
       </c>
       <c r="C9">
-        <v>0.02916814493588242</v>
+        <v>-0.001261473340491793</v>
       </c>
       <c r="D9">
-        <v>-0.01422706366808947</v>
+        <v>0.02660412766995761</v>
       </c>
       <c r="E9">
-        <v>-0.07109083717345055</v>
+        <v>0.01760620954320241</v>
       </c>
       <c r="F9">
-        <v>0.06528485996123587</v>
+        <v>0.03447690374974339</v>
       </c>
       <c r="G9">
-        <v>0.04815654762912171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06296059888934369</v>
+      </c>
+      <c r="H9">
+        <v>-0.02559093094715911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04761374241592036</v>
+        <v>0.09711274441585697</v>
       </c>
       <c r="C10">
-        <v>0.04113776637001913</v>
+        <v>-0.03286615788704358</v>
       </c>
       <c r="D10">
-        <v>-0.01711855875473637</v>
+        <v>-0.1455709548735677</v>
       </c>
       <c r="E10">
-        <v>0.1080899327706348</v>
+        <v>-0.0201160459471333</v>
       </c>
       <c r="F10">
-        <v>0.08392142341483785</v>
+        <v>-0.06861210132308154</v>
       </c>
       <c r="G10">
-        <v>-0.04745728589630184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02317691106175468</v>
+      </c>
+      <c r="H10">
+        <v>-0.004351514714785999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03466365519950317</v>
+        <v>0.02325607706642022</v>
       </c>
       <c r="C11">
-        <v>0.01132612497167081</v>
+        <v>-0.008608647570098424</v>
       </c>
       <c r="D11">
-        <v>0.01822013430260426</v>
+        <v>0.03359240902971386</v>
       </c>
       <c r="E11">
-        <v>-0.03874660549929031</v>
+        <v>-0.003718231940516972</v>
       </c>
       <c r="F11">
-        <v>0.03185714532184088</v>
+        <v>0.02011767821685467</v>
       </c>
       <c r="G11">
-        <v>0.02164901044026736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03685498850505581</v>
+      </c>
+      <c r="H11">
+        <v>-0.02735678140718046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04220577972633231</v>
+        <v>0.03205057380262154</v>
       </c>
       <c r="C12">
-        <v>0.01253797583831554</v>
+        <v>-0.007157737277939956</v>
       </c>
       <c r="D12">
-        <v>0.003303101523554341</v>
+        <v>0.03299121145523774</v>
       </c>
       <c r="E12">
-        <v>-0.04543386076666935</v>
+        <v>0.007676294405514238</v>
       </c>
       <c r="F12">
-        <v>0.01479222077386053</v>
+        <v>0.02403643772275502</v>
       </c>
       <c r="G12">
-        <v>0.01778785867294383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01442917332775098</v>
+      </c>
+      <c r="H12">
+        <v>-0.01424326969907232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02110201007182366</v>
+        <v>0.02738660832121022</v>
       </c>
       <c r="C13">
-        <v>0.02425463436445718</v>
+        <v>0.01264017402158543</v>
       </c>
       <c r="D13">
-        <v>0.03279835791545816</v>
+        <v>0.002473767815571217</v>
       </c>
       <c r="E13">
-        <v>-0.02364435206863151</v>
+        <v>-0.01825737000159341</v>
       </c>
       <c r="F13">
-        <v>0.09131780605428129</v>
+        <v>0.01853694201444016</v>
       </c>
       <c r="G13">
-        <v>0.02869991491201386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07135621886950443</v>
+      </c>
+      <c r="H13">
+        <v>-0.02647628527222668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01117159627872052</v>
+        <v>0.01615829906323411</v>
       </c>
       <c r="C14">
-        <v>0.01769110125166899</v>
+        <v>0.0001401485966157391</v>
       </c>
       <c r="D14">
-        <v>0.00518734240694168</v>
+        <v>0.003191957452368614</v>
       </c>
       <c r="E14">
-        <v>-0.04439082651375303</v>
+        <v>0.007722444461089357</v>
       </c>
       <c r="F14">
-        <v>0.0626598651044367</v>
+        <v>0.02332934276459375</v>
       </c>
       <c r="G14">
-        <v>0.06360232109668254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04720947502863827</v>
+      </c>
+      <c r="H14">
+        <v>0.01765800841750934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02572323560430864</v>
+        <v>0.02460034240850958</v>
       </c>
       <c r="C16">
-        <v>0.01215382283097738</v>
+        <v>-0.009189007522964037</v>
       </c>
       <c r="D16">
-        <v>0.01623197913108105</v>
+        <v>0.02892634689810887</v>
       </c>
       <c r="E16">
-        <v>-0.03778951496103954</v>
+        <v>0.0009124691022119215</v>
       </c>
       <c r="F16">
-        <v>0.03696641672633861</v>
+        <v>0.02219620045282443</v>
       </c>
       <c r="G16">
-        <v>0.02452507793682732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03280465577325502</v>
+      </c>
+      <c r="H16">
+        <v>-0.02142991594648653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0386685809287643</v>
+        <v>0.03408067957946279</v>
       </c>
       <c r="C19">
-        <v>0.01241745331675853</v>
+        <v>-0.0007063879391797582</v>
       </c>
       <c r="D19">
-        <v>0.01810822451106148</v>
+        <v>0.01333102367843714</v>
       </c>
       <c r="E19">
-        <v>-0.06273663105194396</v>
+        <v>-0.00150069882079923</v>
       </c>
       <c r="F19">
-        <v>0.09860649317014644</v>
+        <v>0.029906357025649</v>
       </c>
       <c r="G19">
-        <v>0.04170389545627255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07588262312979616</v>
+      </c>
+      <c r="H19">
+        <v>-0.03622709364999905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>4.9823949590176e-05</v>
+        <v>0.01069142664148912</v>
       </c>
       <c r="C20">
-        <v>0.02240861371174236</v>
+        <v>0.005955124407258114</v>
       </c>
       <c r="D20">
-        <v>0.007887324264571284</v>
+        <v>0.001702415195490173</v>
       </c>
       <c r="E20">
-        <v>-0.03785549269550452</v>
+        <v>-0.0002131890245895549</v>
       </c>
       <c r="F20">
-        <v>0.0636474706520502</v>
+        <v>0.01610357925994567</v>
       </c>
       <c r="G20">
-        <v>0.06520967177856488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05292254586926829</v>
+      </c>
+      <c r="H20">
+        <v>0.009741538759057269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>9.708941785142294e-05</v>
+        <v>0.02307205839909177</v>
       </c>
       <c r="C21">
-        <v>-0.004017775165432213</v>
+        <v>0.005262798934092319</v>
       </c>
       <c r="D21">
-        <v>0.00477835356167483</v>
+        <v>0.003812145385394617</v>
       </c>
       <c r="E21">
-        <v>-0.04619414598222598</v>
+        <v>0.01103151544550499</v>
       </c>
       <c r="F21">
-        <v>0.06126649004614599</v>
+        <v>0.008983552332037169</v>
       </c>
       <c r="G21">
-        <v>0.02606112429907531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05734323092945949</v>
+      </c>
+      <c r="H21">
+        <v>-0.009620422340291339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03283929690267022</v>
+        <v>0.02278954272093026</v>
       </c>
       <c r="C24">
-        <v>0.0159480008513973</v>
+        <v>-0.003739397315926426</v>
       </c>
       <c r="D24">
-        <v>0.01219038951639801</v>
+        <v>0.02959001254527031</v>
       </c>
       <c r="E24">
-        <v>-0.02509707548648471</v>
+        <v>0.00117338932667764</v>
       </c>
       <c r="F24">
-        <v>0.0318139984374774</v>
+        <v>0.01790252645871049</v>
       </c>
       <c r="G24">
-        <v>0.01912292192464915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03076319780762283</v>
+      </c>
+      <c r="H24">
+        <v>-0.0261294671606232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03217684598317943</v>
+        <v>0.03414059033895522</v>
       </c>
       <c r="C25">
-        <v>0.009126709891672304</v>
+        <v>-0.002444724153372542</v>
       </c>
       <c r="D25">
-        <v>0.007987789076201476</v>
+        <v>0.02575815091865446</v>
       </c>
       <c r="E25">
-        <v>-0.04214371896204157</v>
+        <v>0.001618382857416217</v>
       </c>
       <c r="F25">
-        <v>0.03042046117694789</v>
+        <v>0.02232136102013501</v>
       </c>
       <c r="G25">
-        <v>0.006122733089767455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03478528825004381</v>
+      </c>
+      <c r="H25">
+        <v>-0.0291220372640856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01896509243687432</v>
+        <v>0.0194215607709931</v>
       </c>
       <c r="C26">
-        <v>-0.004128892847715595</v>
+        <v>0.01725998352168494</v>
       </c>
       <c r="D26">
-        <v>0.03434956452930733</v>
+        <v>0.004298301995147277</v>
       </c>
       <c r="E26">
-        <v>-0.04609158449333026</v>
+        <v>-0.007200160808817327</v>
       </c>
       <c r="F26">
-        <v>0.05530744097591052</v>
+        <v>0.004458716653089313</v>
       </c>
       <c r="G26">
-        <v>0.03235667688858173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03865715805821234</v>
+      </c>
+      <c r="H26">
+        <v>0.001907813573237016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07490499260170663</v>
+        <v>0.03099636375014331</v>
       </c>
       <c r="C27">
-        <v>0.0509103876903</v>
+        <v>-0.01227729876830689</v>
       </c>
       <c r="D27">
-        <v>-0.001146186371409303</v>
+        <v>0.01128151743147799</v>
       </c>
       <c r="E27">
-        <v>-0.05486076493069052</v>
+        <v>0.005202675352999492</v>
       </c>
       <c r="F27">
-        <v>0.0530491684012342</v>
+        <v>0.02581490677788548</v>
       </c>
       <c r="G27">
-        <v>0.0523922121595209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0284399035637604</v>
+      </c>
+      <c r="H27">
+        <v>0.001674994632427426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07051303750891839</v>
+        <v>0.1465876285367098</v>
       </c>
       <c r="C28">
-        <v>0.06008185123400381</v>
+        <v>-0.03621264663174889</v>
       </c>
       <c r="D28">
-        <v>-0.04076364336515952</v>
+        <v>-0.2171431988620912</v>
       </c>
       <c r="E28">
-        <v>0.1634945577289963</v>
+        <v>-0.02365431290409474</v>
       </c>
       <c r="F28">
-        <v>0.1090098726784101</v>
+        <v>-0.09094652893160872</v>
       </c>
       <c r="G28">
-        <v>-0.02548418815581262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.00958421974782585</v>
+      </c>
+      <c r="H28">
+        <v>0.01249403612582152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02089231790200745</v>
+        <v>0.02229003524166771</v>
       </c>
       <c r="C29">
-        <v>0.01994545955994396</v>
+        <v>-0.002426260367298109</v>
       </c>
       <c r="D29">
-        <v>-0.002399323860247943</v>
+        <v>0.004323558284308856</v>
       </c>
       <c r="E29">
-        <v>-0.05864265866808548</v>
+        <v>0.009392533799948284</v>
       </c>
       <c r="F29">
-        <v>0.04510969640490627</v>
+        <v>0.02490319967406256</v>
       </c>
       <c r="G29">
-        <v>0.06462700582991515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03958914436108208</v>
+      </c>
+      <c r="H29">
+        <v>0.01852513230530478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08935073786196734</v>
+        <v>0.05574221633535839</v>
       </c>
       <c r="C30">
-        <v>0.05306170168077506</v>
+        <v>0.00283452857307571</v>
       </c>
       <c r="D30">
-        <v>0.03628220929686001</v>
+        <v>0.05882108360440379</v>
       </c>
       <c r="E30">
-        <v>-0.08574142009522046</v>
+        <v>-0.03441647889334756</v>
       </c>
       <c r="F30">
-        <v>0.04506200075826055</v>
+        <v>0.0671747033056338</v>
       </c>
       <c r="G30">
-        <v>0.04979904689753861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06726185284276733</v>
+      </c>
+      <c r="H30">
+        <v>-0.03410537889559914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06349449748738892</v>
+        <v>0.05516553156383337</v>
       </c>
       <c r="C31">
-        <v>0.01583197402503084</v>
+        <v>-0.01507734814342359</v>
       </c>
       <c r="D31">
-        <v>0.04868287695461897</v>
+        <v>0.02787716383546186</v>
       </c>
       <c r="E31">
-        <v>-0.03362431304977947</v>
+        <v>-0.009575667051567661</v>
       </c>
       <c r="F31">
-        <v>0.03990208048109863</v>
+        <v>0.01963205727539578</v>
       </c>
       <c r="G31">
-        <v>0.0764020105439988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02434885265805415</v>
+      </c>
+      <c r="H31">
+        <v>0.01511360998409814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02180353652321979</v>
+        <v>0.01628555383207825</v>
       </c>
       <c r="C32">
-        <v>0.02829336809018961</v>
+        <v>-0.01685661127378313</v>
       </c>
       <c r="D32">
-        <v>0.0003488785515228029</v>
+        <v>-0.007383772777880577</v>
       </c>
       <c r="E32">
-        <v>-0.07677131108726901</v>
+        <v>0.01630238544588215</v>
       </c>
       <c r="F32">
-        <v>0.05988564041047991</v>
+        <v>0.0466344752751153</v>
       </c>
       <c r="G32">
-        <v>0.04769822552567693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05819594700502194</v>
+      </c>
+      <c r="H32">
+        <v>-0.04222625421625562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05376182230455382</v>
+        <v>0.04004004214638841</v>
       </c>
       <c r="C33">
-        <v>0.00177113495179804</v>
+        <v>-0.001268022327353098</v>
       </c>
       <c r="D33">
-        <v>0.04564872220214357</v>
+        <v>0.03130556174713803</v>
       </c>
       <c r="E33">
-        <v>-0.07918220754866384</v>
+        <v>-0.02392286536482484</v>
       </c>
       <c r="F33">
-        <v>0.08910481800627852</v>
+        <v>0.01215603799980875</v>
       </c>
       <c r="G33">
-        <v>0.04720594433715829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06597257436486076</v>
+      </c>
+      <c r="H33">
+        <v>-0.01638369645740029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03317991175030912</v>
+        <v>0.02768259644422371</v>
       </c>
       <c r="C34">
-        <v>0.01478103283913759</v>
+        <v>-0.01708997132659651</v>
       </c>
       <c r="D34">
-        <v>0.01048512558110247</v>
+        <v>0.02994717817316895</v>
       </c>
       <c r="E34">
-        <v>-0.04927939710953905</v>
+        <v>0.006303250243489608</v>
       </c>
       <c r="F34">
-        <v>0.03709591119281207</v>
+        <v>0.02206611458217441</v>
       </c>
       <c r="G34">
-        <v>0.01833289165335838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02849808657675389</v>
+      </c>
+      <c r="H34">
+        <v>-0.02456471936298226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01348636106125477</v>
+        <v>0.02184856349102808</v>
       </c>
       <c r="C36">
-        <v>0.009310789317693422</v>
+        <v>0.003031396470518656</v>
       </c>
       <c r="D36">
-        <v>0.002394102423155649</v>
+        <v>-0.002251557375142751</v>
       </c>
       <c r="E36">
-        <v>-0.03078456281005316</v>
+        <v>0.001424865775078279</v>
       </c>
       <c r="F36">
-        <v>0.02327605219238781</v>
+        <v>0.007947623278692282</v>
       </c>
       <c r="G36">
-        <v>0.03569903786285921</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02100771402143824</v>
+      </c>
+      <c r="H36">
+        <v>0.003485702122680945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0006682870332012332</v>
+        <v>0.02211884408812832</v>
       </c>
       <c r="C38">
-        <v>-0.0063942591574245</v>
+        <v>-0.01678745649610507</v>
       </c>
       <c r="D38">
-        <v>-0.01375429223406766</v>
+        <v>-0.001226703560770854</v>
       </c>
       <c r="E38">
-        <v>0.001220248636877308</v>
+        <v>0.003779231736637526</v>
       </c>
       <c r="F38">
-        <v>0.01940972785154288</v>
+        <v>0.009594676470110346</v>
       </c>
       <c r="G38">
-        <v>-0.01168008998964136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03050218974104489</v>
+      </c>
+      <c r="H38">
+        <v>-0.02156255502316616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03905168312772558</v>
+        <v>0.02166437428034471</v>
       </c>
       <c r="C39">
-        <v>0.02007959495326243</v>
+        <v>-0.0007700545419958677</v>
       </c>
       <c r="D39">
-        <v>0.03164017148748044</v>
+        <v>0.06981402140884635</v>
       </c>
       <c r="E39">
-        <v>-0.05173383369509783</v>
+        <v>-0.00147975147727028</v>
       </c>
       <c r="F39">
-        <v>0.04308976564053921</v>
+        <v>0.03923513822047233</v>
       </c>
       <c r="G39">
-        <v>0.01809505136809415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05740471529853914</v>
+      </c>
+      <c r="H39">
+        <v>-0.05015657750266927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03164577676761061</v>
+        <v>0.035187317665189</v>
       </c>
       <c r="C40">
-        <v>0.04516193918615102</v>
+        <v>-0.002832557603789061</v>
       </c>
       <c r="D40">
-        <v>0.05643171820858853</v>
+        <v>0.01412712342022967</v>
       </c>
       <c r="E40">
-        <v>-0.03973811485602413</v>
+        <v>-0.02255296820088177</v>
       </c>
       <c r="F40">
-        <v>0.0889180497372928</v>
+        <v>0.03351705101941815</v>
       </c>
       <c r="G40">
-        <v>0.04206445108492091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.053157768713475</v>
+      </c>
+      <c r="H40">
+        <v>-0.0471976370300799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001816506418606098</v>
+        <v>0.01085893748728206</v>
       </c>
       <c r="C41">
-        <v>-0.008209731558507315</v>
+        <v>0.0002445308539284171</v>
       </c>
       <c r="D41">
-        <v>0.007217319277029842</v>
+        <v>-0.009276961453670789</v>
       </c>
       <c r="E41">
-        <v>-0.01819263634958094</v>
+        <v>-0.003102731576525802</v>
       </c>
       <c r="F41">
-        <v>0.01275218575079944</v>
+        <v>-0.003323612734148518</v>
       </c>
       <c r="G41">
-        <v>0.05706685736267098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009873458401484993</v>
+      </c>
+      <c r="H41">
+        <v>0.01642331933114776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3563534693059702</v>
+        <v>0.1774520836651345</v>
       </c>
       <c r="C42">
-        <v>-0.8883238076304627</v>
+        <v>0.1086898822910279</v>
       </c>
       <c r="D42">
-        <v>0.1862696891753367</v>
+        <v>0.521414864989699</v>
       </c>
       <c r="E42">
-        <v>0.1304722931521641</v>
+        <v>-0.1153460086439721</v>
       </c>
       <c r="F42">
-        <v>-0.03553958802261398</v>
+        <v>-0.8022458228350392</v>
       </c>
       <c r="G42">
-        <v>0.02232942452392853</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.09771314234301115</v>
+      </c>
+      <c r="H42">
+        <v>-0.02048471558136515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007385867654941221</v>
+        <v>0.01055320311553581</v>
       </c>
       <c r="C43">
-        <v>-0.00357056709023746</v>
+        <v>0.001655518901212192</v>
       </c>
       <c r="D43">
-        <v>0.01018551118564561</v>
+        <v>-0.01308493704519066</v>
       </c>
       <c r="E43">
-        <v>-0.02221291927941437</v>
+        <v>-0.008250167689692174</v>
       </c>
       <c r="F43">
-        <v>0.03337804781404231</v>
+        <v>-0.007944022707461395</v>
       </c>
       <c r="G43">
-        <v>0.04907253924089234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01879573121355116</v>
+      </c>
+      <c r="H43">
+        <v>0.008411792361766261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0193516256129094</v>
+        <v>0.01653569118209757</v>
       </c>
       <c r="C44">
-        <v>-0.001641075331867224</v>
+        <v>-0.0009375731908632123</v>
       </c>
       <c r="D44">
-        <v>0.0247271429399421</v>
+        <v>0.02233926526373813</v>
       </c>
       <c r="E44">
-        <v>-0.07875931565916253</v>
+        <v>0.000177598407261881</v>
       </c>
       <c r="F44">
-        <v>0.1703209482404508</v>
+        <v>0.001812025457714296</v>
       </c>
       <c r="G44">
-        <v>0.1541218509296514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09070511284879361</v>
+      </c>
+      <c r="H44">
+        <v>-0.01433380779771825</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01985710206897527</v>
+        <v>0.02202009613349184</v>
       </c>
       <c r="C46">
-        <v>0.01796416371156973</v>
+        <v>0.001474527907899141</v>
       </c>
       <c r="D46">
-        <v>0.0208799662867934</v>
+        <v>0.00949550852122596</v>
       </c>
       <c r="E46">
-        <v>-0.07392544737939756</v>
+        <v>-0.002349438460731549</v>
       </c>
       <c r="F46">
-        <v>0.06584548072430398</v>
+        <v>0.030638121503372</v>
       </c>
       <c r="G46">
-        <v>0.05694365782574839</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05890231027586883</v>
+      </c>
+      <c r="H46">
+        <v>0.0136197185520337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09778110751396588</v>
+        <v>0.07804220564289524</v>
       </c>
       <c r="C47">
-        <v>0.03331102014224918</v>
+        <v>-0.03153570127033301</v>
       </c>
       <c r="D47">
-        <v>0.02454171096742512</v>
+        <v>0.03427834683519272</v>
       </c>
       <c r="E47">
-        <v>-0.03345701958708308</v>
+        <v>-0.005395569747844383</v>
       </c>
       <c r="F47">
-        <v>0.004250458088100835</v>
+        <v>0.03035692344726326</v>
       </c>
       <c r="G47">
-        <v>0.08889847542202639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008992995616380204</v>
+      </c>
+      <c r="H47">
+        <v>0.0292380850033164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01455679838809694</v>
+        <v>0.0221613396420798</v>
       </c>
       <c r="C48">
-        <v>0.004553035404538598</v>
+        <v>-0.006921351338864229</v>
       </c>
       <c r="D48">
-        <v>0.01640013882812581</v>
+        <v>0.004155464909090625</v>
       </c>
       <c r="E48">
-        <v>-0.04069235939985769</v>
+        <v>-0.003113296628406831</v>
       </c>
       <c r="F48">
-        <v>0.03634680874753422</v>
+        <v>0.0107714719540982</v>
       </c>
       <c r="G48">
-        <v>0.01884464344898852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02885749450796763</v>
+      </c>
+      <c r="H48">
+        <v>-0.0005595678405997044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09154188513529289</v>
+        <v>0.07429229974944923</v>
       </c>
       <c r="C50">
-        <v>0.01590745776230062</v>
+        <v>-0.02714745157348206</v>
       </c>
       <c r="D50">
-        <v>0.03778695661298488</v>
+        <v>0.04127752303673289</v>
       </c>
       <c r="E50">
-        <v>-0.05129271834463157</v>
+        <v>0.009027664510867641</v>
       </c>
       <c r="F50">
-        <v>0.02502187128564974</v>
+        <v>0.02377414522572189</v>
       </c>
       <c r="G50">
-        <v>0.03676043478868717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02306766547968364</v>
+      </c>
+      <c r="H50">
+        <v>0.02598591840197556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02169843817686659</v>
+        <v>0.02144363427059543</v>
       </c>
       <c r="C51">
-        <v>0.01314314111852354</v>
+        <v>-0.0003394355767369585</v>
       </c>
       <c r="D51">
-        <v>0.02161186477485743</v>
+        <v>-0.008066022751539807</v>
       </c>
       <c r="E51">
-        <v>-0.03215917684159347</v>
+        <v>-0.007735756051609047</v>
       </c>
       <c r="F51">
-        <v>0.1462612613734726</v>
+        <v>-0.003084199510387672</v>
       </c>
       <c r="G51">
-        <v>0.04782508376713786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07593284513444062</v>
+      </c>
+      <c r="H51">
+        <v>-0.02402194787376452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1044217863965621</v>
+        <v>0.09560516640324299</v>
       </c>
       <c r="C53">
-        <v>0.04704848684625863</v>
+        <v>-0.03827745547241002</v>
       </c>
       <c r="D53">
-        <v>0.03900218280556482</v>
+        <v>0.06502513713370996</v>
       </c>
       <c r="E53">
-        <v>-0.03986931634923287</v>
+        <v>-0.001430519833998264</v>
       </c>
       <c r="F53">
-        <v>-0.05411440224528685</v>
+        <v>0.0625926043045897</v>
       </c>
       <c r="G53">
-        <v>0.0321971373243302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05522168438340236</v>
+      </c>
+      <c r="H53">
+        <v>0.03417171265553814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01487141492018084</v>
+        <v>0.0248049822353025</v>
       </c>
       <c r="C54">
-        <v>0.02923857398203092</v>
+        <v>-0.01278621846426674</v>
       </c>
       <c r="D54">
-        <v>0.0003122054033727032</v>
+        <v>-0.01951069188255158</v>
       </c>
       <c r="E54">
-        <v>-0.03950134325128907</v>
+        <v>0.003049849576861182</v>
       </c>
       <c r="F54">
-        <v>0.06532366881059043</v>
+        <v>0.01252934936745782</v>
       </c>
       <c r="G54">
-        <v>0.07098194106849817</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03808413269216301</v>
+      </c>
+      <c r="H54">
+        <v>0.01427467115706067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006729377142068</v>
+        <v>0.08168218100234362</v>
       </c>
       <c r="C55">
-        <v>0.0335581012165398</v>
+        <v>-0.03364331753233113</v>
       </c>
       <c r="D55">
-        <v>0.001704228610391186</v>
+        <v>0.06265105698270906</v>
       </c>
       <c r="E55">
-        <v>-0.04942462324382359</v>
+        <v>0.009774146744402454</v>
       </c>
       <c r="F55">
-        <v>-0.04684993201843093</v>
+        <v>0.05245320586471584</v>
       </c>
       <c r="G55">
-        <v>0.07097749952303974</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03319568455470439</v>
+      </c>
+      <c r="H55">
+        <v>0.04555652955119716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1470501691961507</v>
+        <v>0.1313765339939227</v>
       </c>
       <c r="C56">
-        <v>0.08089681955048349</v>
+        <v>-0.05855531249753115</v>
       </c>
       <c r="D56">
-        <v>0.02442453156603405</v>
+        <v>0.0844493197162919</v>
       </c>
       <c r="E56">
-        <v>-0.03898180151179432</v>
+        <v>0.003126209839011943</v>
       </c>
       <c r="F56">
-        <v>-0.1641413721720565</v>
+        <v>0.08839312074494347</v>
       </c>
       <c r="G56">
-        <v>0.007496954243694482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09993259446685787</v>
+      </c>
+      <c r="H56">
+        <v>0.02844683517719035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04388857019727665</v>
+        <v>0.04384429196692295</v>
       </c>
       <c r="C57">
-        <v>0.01381754324832888</v>
+        <v>0.008022838819660425</v>
       </c>
       <c r="D57">
-        <v>0.03021943957378364</v>
+        <v>0.02034327427307889</v>
       </c>
       <c r="E57">
-        <v>-0.01321585497413892</v>
+        <v>-0.01073786786971293</v>
       </c>
       <c r="F57">
-        <v>0.08029839843166928</v>
+        <v>0.02308588507999104</v>
       </c>
       <c r="G57">
-        <v>0.02891095199743314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06333419030382975</v>
+      </c>
+      <c r="H57">
+        <v>-0.01119454185607157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1978421699714917</v>
+        <v>0.147426906087798</v>
       </c>
       <c r="C58">
-        <v>0.02327940176433599</v>
+        <v>-0.04249840933581588</v>
       </c>
       <c r="D58">
-        <v>0.1222388566957187</v>
+        <v>0.1342459597460552</v>
       </c>
       <c r="E58">
-        <v>-0.2537474861373516</v>
+        <v>-0.109390716286184</v>
       </c>
       <c r="F58">
-        <v>0.2092061510656496</v>
+        <v>0.02028124973285621</v>
       </c>
       <c r="G58">
-        <v>-0.0344817023005085</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.66824502059946</v>
+      </c>
+      <c r="H58">
+        <v>0.5578135433658351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06799745542962614</v>
+        <v>0.1506414064126227</v>
       </c>
       <c r="C59">
-        <v>0.08100230643668493</v>
+        <v>-0.04353550057343938</v>
       </c>
       <c r="D59">
-        <v>-0.0267478873399528</v>
+        <v>-0.2147054031086441</v>
       </c>
       <c r="E59">
-        <v>0.1306093010307332</v>
+        <v>-0.04169997974210259</v>
       </c>
       <c r="F59">
-        <v>0.1052878915765049</v>
+        <v>-0.07284535345119744</v>
       </c>
       <c r="G59">
-        <v>-0.04222106788779028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0174729886052147</v>
+      </c>
+      <c r="H59">
+        <v>-0.02126422961589085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1690583742680778</v>
+        <v>0.1732649577253552</v>
       </c>
       <c r="C60">
-        <v>0.05357415391043558</v>
+        <v>-0.04003828046096565</v>
       </c>
       <c r="D60">
-        <v>0.06765672306792182</v>
+        <v>0.0164183376697771</v>
       </c>
       <c r="E60">
-        <v>-0.06366000690068142</v>
+        <v>-0.05448324071192253</v>
       </c>
       <c r="F60">
-        <v>0.1204719228526747</v>
+        <v>0.05072691493383964</v>
       </c>
       <c r="G60">
-        <v>-0.3393697292012092</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1353951682431572</v>
+      </c>
+      <c r="H60">
+        <v>-0.3749403098569901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01999480424008135</v>
+        <v>0.02291855446863886</v>
       </c>
       <c r="C61">
-        <v>0.005396272942174744</v>
+        <v>-0.006471956933407272</v>
       </c>
       <c r="D61">
-        <v>0.006569014963379051</v>
+        <v>0.03768180851771233</v>
       </c>
       <c r="E61">
-        <v>-0.02944376982635009</v>
+        <v>0.003086226550731861</v>
       </c>
       <c r="F61">
-        <v>0.02100624345673757</v>
+        <v>0.02681940402645489</v>
       </c>
       <c r="G61">
-        <v>0.01783235456816427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03315979278754071</v>
+      </c>
+      <c r="H61">
+        <v>-0.03752069171477055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01649504511231094</v>
+        <v>0.0141139585137006</v>
       </c>
       <c r="C63">
-        <v>0.007673085716263298</v>
+        <v>0.001470216694676284</v>
       </c>
       <c r="D63">
-        <v>0.01207317078596632</v>
+        <v>0.008515627024688381</v>
       </c>
       <c r="E63">
-        <v>-0.04305571932357684</v>
+        <v>0.002064058817716349</v>
       </c>
       <c r="F63">
-        <v>0.007639925101446965</v>
+        <v>0.01837106966196854</v>
       </c>
       <c r="G63">
-        <v>0.04556014902817176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01604687612706254</v>
+      </c>
+      <c r="H63">
+        <v>0.01237289334090519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03849735508877445</v>
+        <v>0.04454292218367103</v>
       </c>
       <c r="C64">
-        <v>0.02201769565971997</v>
+        <v>-0.01186938911347834</v>
       </c>
       <c r="D64">
-        <v>-0.01929898569058552</v>
+        <v>0.03388186710015663</v>
       </c>
       <c r="E64">
-        <v>-0.04120965937641511</v>
+        <v>0.01026705845992222</v>
       </c>
       <c r="F64">
-        <v>0.0232365353311133</v>
+        <v>0.02300547222313964</v>
       </c>
       <c r="G64">
-        <v>0.06872006388142515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02260597097326577</v>
+      </c>
+      <c r="H64">
+        <v>-0.02642796062786647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01355456699591439</v>
+        <v>0.03490767602567407</v>
       </c>
       <c r="C65">
-        <v>-0.003523796969814071</v>
+        <v>0.003236131518280234</v>
       </c>
       <c r="D65">
-        <v>0.01230198324966426</v>
+        <v>0.04550472284443442</v>
       </c>
       <c r="E65">
-        <v>-0.02151044147855494</v>
+        <v>0.005653388237497697</v>
       </c>
       <c r="F65">
-        <v>0.006963003085346654</v>
+        <v>0.03553789476229826</v>
       </c>
       <c r="G65">
-        <v>-0.007639793317434457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006111557890932097</v>
+      </c>
+      <c r="H65">
+        <v>-0.05983193718166711</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03756306490094125</v>
+        <v>0.02894929951880467</v>
       </c>
       <c r="C66">
-        <v>0.02329471098473311</v>
+        <v>-0.005964298684900786</v>
       </c>
       <c r="D66">
-        <v>0.02516620265033044</v>
+        <v>0.07849499320166203</v>
       </c>
       <c r="E66">
-        <v>-0.05369450269640608</v>
+        <v>-0.005807077401996116</v>
       </c>
       <c r="F66">
-        <v>0.03574557874374495</v>
+        <v>0.05763935563497845</v>
       </c>
       <c r="G66">
-        <v>0.007639102854696199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04826168064969558</v>
+      </c>
+      <c r="H66">
+        <v>-0.05931520400835102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02016085794593481</v>
+        <v>0.04399105276708916</v>
       </c>
       <c r="C67">
-        <v>-0.0003494677350144312</v>
+        <v>-0.02085130441721562</v>
       </c>
       <c r="D67">
-        <v>-0.01459833760886155</v>
+        <v>-0.006440024063134945</v>
       </c>
       <c r="E67">
-        <v>0.020081071786097</v>
+        <v>0.0005489514324280896</v>
       </c>
       <c r="F67">
-        <v>0.02540248528723399</v>
+        <v>0.01156963780509362</v>
       </c>
       <c r="G67">
-        <v>-0.01469868637684745</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01884843053378467</v>
+      </c>
+      <c r="H67">
+        <v>-0.03271310342331064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08095236355742308</v>
+        <v>0.1499433066238</v>
       </c>
       <c r="C68">
-        <v>0.05928957567976336</v>
+        <v>-0.02144069467403266</v>
       </c>
       <c r="D68">
-        <v>-0.04210100731773703</v>
+        <v>-0.1999231441729338</v>
       </c>
       <c r="E68">
-        <v>0.1679658135647142</v>
+        <v>-0.03581590317855445</v>
       </c>
       <c r="F68">
-        <v>0.08378326471218359</v>
+        <v>-0.09645875409936201</v>
       </c>
       <c r="G68">
-        <v>-0.07924891140408488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01303931421977713</v>
+      </c>
+      <c r="H68">
+        <v>0.04136083181790799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07245401182610413</v>
+        <v>0.06193726106341155</v>
       </c>
       <c r="C69">
-        <v>0.02853354844841999</v>
+        <v>-0.02940614280866704</v>
       </c>
       <c r="D69">
-        <v>0.02336227225214195</v>
+        <v>0.03335938464486613</v>
       </c>
       <c r="E69">
-        <v>-0.01073291191447938</v>
+        <v>-0.005369656709740378</v>
       </c>
       <c r="F69">
-        <v>0.0156257113962838</v>
+        <v>0.02879071149829227</v>
       </c>
       <c r="G69">
-        <v>0.07517420627798135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0003191102826508167</v>
+      </c>
+      <c r="H69">
+        <v>0.00914222266882979</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09750038990459714</v>
+        <v>0.1434478185380074</v>
       </c>
       <c r="C71">
-        <v>0.06241782747959207</v>
+        <v>-0.02946580235807624</v>
       </c>
       <c r="D71">
-        <v>-0.02052877379656663</v>
+        <v>-0.1855058136459193</v>
       </c>
       <c r="E71">
-        <v>0.2078615475831326</v>
+        <v>-0.03552316883634677</v>
       </c>
       <c r="F71">
-        <v>0.1041792010870841</v>
+        <v>-0.1012159814098338</v>
       </c>
       <c r="G71">
-        <v>-0.05028743189832676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01142975687199845</v>
+      </c>
+      <c r="H71">
+        <v>0.02502796565805752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1113272623532197</v>
+        <v>0.09131746299386219</v>
       </c>
       <c r="C72">
-        <v>0.09276395110935591</v>
+        <v>-0.04394411469785608</v>
       </c>
       <c r="D72">
-        <v>0.01748729778021719</v>
+        <v>0.06645918878759599</v>
       </c>
       <c r="E72">
-        <v>-0.08155816231065552</v>
+        <v>-0.007769072111484767</v>
       </c>
       <c r="F72">
-        <v>0.0832380418781745</v>
+        <v>0.1015369608656094</v>
       </c>
       <c r="G72">
-        <v>-0.1154108362694904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1023215485855517</v>
+      </c>
+      <c r="H72">
+        <v>-0.1493421086436963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2455290464271064</v>
+        <v>0.238914634111688</v>
       </c>
       <c r="C73">
-        <v>0.06749670322436435</v>
+        <v>-0.05054336294913418</v>
       </c>
       <c r="D73">
-        <v>0.06448538013057588</v>
+        <v>0.06642292482335908</v>
       </c>
       <c r="E73">
-        <v>-0.03366343981498086</v>
+        <v>-0.0772731542267886</v>
       </c>
       <c r="F73">
-        <v>0.1911082713624201</v>
+        <v>0.06412822504210478</v>
       </c>
       <c r="G73">
-        <v>-0.4858637432799758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1840616599637848</v>
+      </c>
+      <c r="H73">
+        <v>-0.5035691157528535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.128394049339688</v>
+        <v>0.1190130352296985</v>
       </c>
       <c r="C74">
-        <v>0.046002783849896</v>
+        <v>-0.05277671610285804</v>
       </c>
       <c r="D74">
-        <v>0.03368896823277424</v>
+        <v>0.08488350441130721</v>
       </c>
       <c r="E74">
-        <v>-0.01454995807417592</v>
+        <v>-0.005826206905865934</v>
       </c>
       <c r="F74">
-        <v>-0.09483259605443563</v>
+        <v>0.07448037214980893</v>
       </c>
       <c r="G74">
-        <v>-0.02089848938235241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07451592648881886</v>
+      </c>
+      <c r="H74">
+        <v>0.007880399158403432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2199670261243422</v>
+        <v>0.2303436829381312</v>
       </c>
       <c r="C75">
-        <v>0.1238036466900707</v>
+        <v>-0.1042420664318695</v>
       </c>
       <c r="D75">
-        <v>0.06683205882963562</v>
+        <v>0.135380379484876</v>
       </c>
       <c r="E75">
-        <v>-0.0564739727053459</v>
+        <v>-0.02029505981925697</v>
       </c>
       <c r="F75">
-        <v>-0.1718724004744377</v>
+        <v>0.1499749936243951</v>
       </c>
       <c r="G75">
-        <v>0.05857633542830347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1587861556643848</v>
+      </c>
+      <c r="H75">
+        <v>0.09105684329322071</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2732452862680083</v>
+        <v>0.208248687528205</v>
       </c>
       <c r="C76">
-        <v>0.1305458667785375</v>
+        <v>-0.09873776378072821</v>
       </c>
       <c r="D76">
-        <v>0.005737304227408166</v>
+        <v>0.1248551492436715</v>
       </c>
       <c r="E76">
-        <v>-0.02166513229506175</v>
+        <v>0.02125132096777913</v>
       </c>
       <c r="F76">
-        <v>-0.2021041162500534</v>
+        <v>0.1468382733953749</v>
       </c>
       <c r="G76">
-        <v>0.06671370771852342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1734403922689008</v>
+      </c>
+      <c r="H76">
+        <v>0.09392640475192027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1410425995465803</v>
+        <v>0.07294940388395597</v>
       </c>
       <c r="C77">
-        <v>-0.02199501441631571</v>
+        <v>-0.009353327706840471</v>
       </c>
       <c r="D77">
-        <v>0.06266462181900061</v>
+        <v>0.07459979432091594</v>
       </c>
       <c r="E77">
-        <v>-0.1239900784083228</v>
+        <v>-0.01083570216335481</v>
       </c>
       <c r="F77">
-        <v>0.2201185722493997</v>
+        <v>-0.001745355369008794</v>
       </c>
       <c r="G77">
-        <v>0.1294205891483018</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1326396704201867</v>
+      </c>
+      <c r="H77">
+        <v>0.06650952105316953</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05407957791182295</v>
+        <v>0.03709038876007308</v>
       </c>
       <c r="C78">
-        <v>0.01572264243665984</v>
+        <v>-0.01047301132660356</v>
       </c>
       <c r="D78">
-        <v>0.03498142866468832</v>
+        <v>0.05811215977337637</v>
       </c>
       <c r="E78">
-        <v>-0.1124414136427999</v>
+        <v>0.00379386626864954</v>
       </c>
       <c r="F78">
-        <v>0.02820038983892911</v>
+        <v>0.04757268126407556</v>
       </c>
       <c r="G78">
-        <v>0.06214019723663194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06000307587683195</v>
+      </c>
+      <c r="H78">
+        <v>-0.02597354143653063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2131013783354921</v>
+        <v>0.1668810992094287</v>
       </c>
       <c r="C80">
-        <v>-0.1513865704592942</v>
+        <v>-0.05056004167318061</v>
       </c>
       <c r="D80">
-        <v>-0.9264850377734689</v>
+        <v>-0.0005373185426115732</v>
       </c>
       <c r="E80">
-        <v>-0.2319947502523759</v>
+        <v>0.963374512040151</v>
       </c>
       <c r="F80">
-        <v>0.01547055066552253</v>
+        <v>-0.1275736471879328</v>
       </c>
       <c r="G80">
-        <v>-0.02484503489426405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09343235720824472</v>
+      </c>
+      <c r="H80">
+        <v>-0.007897164113356617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1593806746926266</v>
+        <v>0.1519110854657043</v>
       </c>
       <c r="C81">
-        <v>0.09261081758762052</v>
+        <v>-0.06802574475824101</v>
       </c>
       <c r="D81">
-        <v>0.01966829762204541</v>
+        <v>0.0834595660483307</v>
       </c>
       <c r="E81">
-        <v>-0.03653535201527101</v>
+        <v>0.002785025140969843</v>
       </c>
       <c r="F81">
-        <v>-0.1776739253411688</v>
+        <v>0.09709169245638366</v>
       </c>
       <c r="G81">
-        <v>0.02929988791401798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1053812739026344</v>
+      </c>
+      <c r="H81">
+        <v>0.06709159620889885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05661747574174696</v>
+        <v>0.03862757580564485</v>
       </c>
       <c r="C83">
-        <v>-0.01179563702335137</v>
+        <v>-0.007456463117372628</v>
       </c>
       <c r="D83">
-        <v>0.03552140923312198</v>
+        <v>0.02265176875630936</v>
       </c>
       <c r="E83">
-        <v>-0.02905791675385154</v>
+        <v>-0.01192717549991301</v>
       </c>
       <c r="F83">
-        <v>0.06037542757369641</v>
+        <v>0.007845676011947415</v>
       </c>
       <c r="G83">
-        <v>0.04688430095138255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05672593774028214</v>
+      </c>
+      <c r="H83">
+        <v>-0.01487655948814193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.238905796122144</v>
+        <v>0.216184493911358</v>
       </c>
       <c r="C85">
-        <v>0.1141370662573098</v>
+        <v>-0.08588113228982919</v>
       </c>
       <c r="D85">
-        <v>0.04189124960591494</v>
+        <v>0.1394847839891712</v>
       </c>
       <c r="E85">
-        <v>-0.02941127434558357</v>
+        <v>-0.01192118339420235</v>
       </c>
       <c r="F85">
-        <v>-0.1866577295636339</v>
+        <v>0.1329285104594603</v>
       </c>
       <c r="G85">
-        <v>0.08315381140474776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.169050833113073</v>
+      </c>
+      <c r="H85">
+        <v>0.0602298191262965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-7.420812719134518e-05</v>
+        <v>0.01661527620049227</v>
       </c>
       <c r="C86">
-        <v>-0.01072825185908148</v>
+        <v>0.001200731756312373</v>
       </c>
       <c r="D86">
-        <v>-0.002039665505729232</v>
+        <v>0.006155326340981399</v>
       </c>
       <c r="E86">
-        <v>-0.05006592472122465</v>
+        <v>-0.01109487364947429</v>
       </c>
       <c r="F86">
-        <v>0.06454265051686178</v>
+        <v>-0.003646941073716737</v>
       </c>
       <c r="G86">
-        <v>0.01663988082034183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08825280713692017</v>
+      </c>
+      <c r="H86">
+        <v>-0.03907944172173661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03250648218568752</v>
+        <v>0.02907061034670531</v>
       </c>
       <c r="C87">
-        <v>0.006537407706144773</v>
+        <v>-0.003279509978900426</v>
       </c>
       <c r="D87">
-        <v>0.01180424790896191</v>
+        <v>0.02826834792162563</v>
       </c>
       <c r="E87">
-        <v>-0.04032909323621477</v>
+        <v>-0.001256091662811509</v>
       </c>
       <c r="F87">
-        <v>0.08116901324850032</v>
+        <v>0.02227601698163071</v>
       </c>
       <c r="G87">
-        <v>-0.00197657301455199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09568896925533453</v>
+      </c>
+      <c r="H87">
+        <v>-0.02634244202081017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009399169638841409</v>
+        <v>0.03733129584685209</v>
       </c>
       <c r="C88">
-        <v>0.01395320017297566</v>
+        <v>0.01033531094220124</v>
       </c>
       <c r="D88">
-        <v>-0.023437009828269</v>
+        <v>-0.001215873049110069</v>
       </c>
       <c r="E88">
-        <v>0.005800645742657698</v>
+        <v>0.008494332652231052</v>
       </c>
       <c r="F88">
-        <v>0.03744581902505459</v>
+        <v>0.01202873595149499</v>
       </c>
       <c r="G88">
-        <v>0.0632586222781208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004379897519793586</v>
+      </c>
+      <c r="H88">
+        <v>-0.01021113039345516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1134433058374105</v>
+        <v>0.2348070562671059</v>
       </c>
       <c r="C89">
-        <v>0.09009857971896168</v>
+        <v>-0.04514795852560859</v>
       </c>
       <c r="D89">
-        <v>-0.03011500033391433</v>
+        <v>-0.3272928695454099</v>
       </c>
       <c r="E89">
-        <v>0.2696220007386484</v>
+        <v>-0.08015625299082489</v>
       </c>
       <c r="F89">
-        <v>0.166114022110554</v>
+        <v>-0.1363005280252999</v>
       </c>
       <c r="G89">
-        <v>-0.01731686196882109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001386801321477721</v>
+      </c>
+      <c r="H89">
+        <v>0.03081010418253927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1079469090708113</v>
+        <v>0.1874803639841356</v>
       </c>
       <c r="C90">
-        <v>0.08946653640189046</v>
+        <v>-0.03691438497821357</v>
       </c>
       <c r="D90">
-        <v>-0.07432858010552718</v>
+        <v>-0.2843154259174471</v>
       </c>
       <c r="E90">
-        <v>0.2919757998067608</v>
+        <v>-0.05317630255409189</v>
       </c>
       <c r="F90">
-        <v>0.1348867774134258</v>
+        <v>-0.1348563927043529</v>
       </c>
       <c r="G90">
-        <v>-0.03910228707240371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04060530500371148</v>
+      </c>
+      <c r="H90">
+        <v>0.04302703128094132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2932263314176999</v>
+        <v>0.2373178271016422</v>
       </c>
       <c r="C91">
-        <v>0.101239385159128</v>
+        <v>-0.105125267437401</v>
       </c>
       <c r="D91">
-        <v>0.05706628034362903</v>
+        <v>0.1349461012556569</v>
       </c>
       <c r="E91">
-        <v>-0.005146500844361203</v>
+        <v>-0.01243450450062187</v>
       </c>
       <c r="F91">
-        <v>-0.258196576256314</v>
+        <v>0.1364888737010467</v>
       </c>
       <c r="G91">
-        <v>0.04502268195754426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2040221921731153</v>
+      </c>
+      <c r="H91">
+        <v>0.1228377912336446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1819034413985602</v>
+        <v>0.2408085230448063</v>
       </c>
       <c r="C92">
-        <v>0.08891716872070503</v>
+        <v>-0.09901424869563696</v>
       </c>
       <c r="D92">
-        <v>-0.09978273750894451</v>
+        <v>-0.2307667518106601</v>
       </c>
       <c r="E92">
-        <v>0.4647354280570459</v>
+        <v>-0.03303003008047879</v>
       </c>
       <c r="F92">
-        <v>0.107641731864314</v>
+        <v>-0.1150278116896258</v>
       </c>
       <c r="G92">
-        <v>0.4792995153547184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04847343806275715</v>
+      </c>
+      <c r="H92">
+        <v>0.1367787432759046</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1142585400352021</v>
+        <v>0.2106574788828538</v>
       </c>
       <c r="C93">
-        <v>0.0686738689636342</v>
+        <v>-0.04732010088791721</v>
       </c>
       <c r="D93">
-        <v>-0.08479575363272318</v>
+        <v>-0.3033478435478428</v>
       </c>
       <c r="E93">
-        <v>0.4029658879980996</v>
+        <v>-0.06622715966660615</v>
       </c>
       <c r="F93">
-        <v>0.1033313145529186</v>
+        <v>-0.173232333898602</v>
       </c>
       <c r="G93">
-        <v>-0.1053641335701749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05296938534320348</v>
+      </c>
+      <c r="H93">
+        <v>-0.0149459758862864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2697328485307226</v>
+        <v>0.2555113850913182</v>
       </c>
       <c r="C94">
-        <v>0.1447729855071876</v>
+        <v>-0.09378811518975286</v>
       </c>
       <c r="D94">
-        <v>0.02981658123227394</v>
+        <v>0.1174920037807993</v>
       </c>
       <c r="E94">
-        <v>-0.01421022799884924</v>
+        <v>-0.0306400356568172</v>
       </c>
       <c r="F94">
-        <v>-0.3017444643049085</v>
+        <v>0.1614747500694629</v>
       </c>
       <c r="G94">
-        <v>-0.01810434688636211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2136817444811879</v>
+      </c>
+      <c r="H94">
+        <v>0.1348666015502993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07960146302347099</v>
+        <v>0.06447449488292864</v>
       </c>
       <c r="C95">
-        <v>0.007776590780011377</v>
+        <v>-0.03222439332538981</v>
       </c>
       <c r="D95">
-        <v>0.07694332428194443</v>
+        <v>0.08895022585832099</v>
       </c>
       <c r="E95">
-        <v>-0.0842268847742578</v>
+        <v>-0.07119245256794515</v>
       </c>
       <c r="F95">
-        <v>0.03015500769099564</v>
+        <v>0.02622463544670486</v>
       </c>
       <c r="G95">
-        <v>0.2277009839650425</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06156513376225787</v>
+      </c>
+      <c r="H95">
+        <v>-0.00490784119378612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1863715232572254</v>
+        <v>0.1806396247272692</v>
       </c>
       <c r="C98">
-        <v>0.03630966709319182</v>
+        <v>-0.07083685573406436</v>
       </c>
       <c r="D98">
-        <v>0.04754299352680179</v>
+        <v>0.04091934615436026</v>
       </c>
       <c r="E98">
-        <v>0.01406101238189484</v>
+        <v>-0.05235816188847707</v>
       </c>
       <c r="F98">
-        <v>0.07512193378280392</v>
+        <v>0.02422550304851177</v>
       </c>
       <c r="G98">
-        <v>-0.3406133461745162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1555416506361563</v>
+      </c>
+      <c r="H98">
+        <v>-0.3639400455794004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004703518940459149</v>
+        <v>0.01544203145192234</v>
       </c>
       <c r="C101">
-        <v>0.02279331066054789</v>
+        <v>-0.0003288192650345376</v>
       </c>
       <c r="D101">
-        <v>0.01320420155150217</v>
+        <v>0.00463164430004845</v>
       </c>
       <c r="E101">
-        <v>-0.1303634162825503</v>
+        <v>0.004708398903682174</v>
       </c>
       <c r="F101">
-        <v>0.1318157441060091</v>
+        <v>0.0303532169111179</v>
       </c>
       <c r="G101">
-        <v>0.1280710337713988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1021167088018171</v>
+      </c>
+      <c r="H101">
+        <v>0.07208486615347415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09933220559683333</v>
+        <v>0.1042252760704884</v>
       </c>
       <c r="C102">
-        <v>0.03227541060350314</v>
+        <v>-0.03372070400037472</v>
       </c>
       <c r="D102">
-        <v>0.01085954463582718</v>
+        <v>0.07110605061152535</v>
       </c>
       <c r="E102">
-        <v>-0.04500632752477158</v>
+        <v>0.002278520752232107</v>
       </c>
       <c r="F102">
-        <v>-0.1357958347988407</v>
+        <v>0.0663562804997575</v>
       </c>
       <c r="G102">
-        <v>0.07681463429491801</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09525721779231196</v>
+      </c>
+      <c r="H102">
+        <v>0.05384635932022511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02506245948085328</v>
+        <v>0.02027383685022414</v>
       </c>
       <c r="C103">
-        <v>0.01239356722630686</v>
+        <v>-0.007765164993835339</v>
       </c>
       <c r="D103">
-        <v>0.01090798785517135</v>
+        <v>0.01512211757492219</v>
       </c>
       <c r="E103">
-        <v>-0.00418155284662919</v>
+        <v>0.006417354778157254</v>
       </c>
       <c r="F103">
-        <v>-0.0129702580108733</v>
+        <v>0.01795275192468903</v>
       </c>
       <c r="G103">
-        <v>0.02194872570623621</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006137741160848796</v>
+      </c>
+      <c r="H103">
+        <v>0.01124982480190806</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2828241333772068</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9390120842867421</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04245882659723465</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02437487314359957</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1575646788170316</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03717917889860428</v>
+      </c>
+      <c r="H104">
+        <v>0.03135945187419551</v>
       </c>
     </row>
   </sheetData>
